--- a/src/main/webapp/content/templates/report-stock-out-take-box.xlsx
+++ b/src/main/webapp/content/templates/report-stock-out-take-box.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuyu/IdeaProjects/nccd/BioBank/src/main/webapp/content/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\application\BioBank\src\main\webapp\content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="27880" windowHeight="12820"/>
+    <workbookView xWindow="945" yWindow="465" windowWidth="27885" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="取盒单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>□</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>取盒单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,14 +65,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>一维编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,26 +148,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,32 +164,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,111 +459,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:O3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
